--- a/Reports/Operation/Divergence_areas/Divergence_areas.xlsx
+++ b/Reports/Operation/Divergence_areas/Divergence_areas.xlsx
@@ -118,8 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -239,9 +240,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,6 +253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -559,7 +560,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -576,14 +577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
@@ -601,14 +602,14 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -616,14 +617,14 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:17" ht="36">
       <c r="A4" s="10" t="s">
@@ -641,7 +642,7 @@
       <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
       <c r="L4" s="6" t="s">
         <v>4</v>
       </c>
@@ -659,13 +660,13 @@
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="15"/>
       <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
@@ -703,14 +704,14 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="36">
       <c r="A9" s="10" t="s">
@@ -728,7 +729,7 @@
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
       <c r="L9" s="6" t="s">
         <v>4</v>
       </c>
@@ -746,13 +747,13 @@
       <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="15"/>
       <c r="H10" s="8" t="s">
         <v>5</v>
       </c>
